--- a/CCUS_NW_SE_Europe-Storage.xlsx
+++ b/CCUS_NW_SE_Europe-Storage.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c2a688f44e2bc8a/Documenten/MSc TOM/Assignments/SCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A53FD1643A0CCAC6F7328E8CE017818F0D010D15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9ECEAB0-C682-4AF3-A1F8-914D86729CE6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A53FD1643A0CCAC6F7328E8CE017818F0D010D15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3429243-F85F-49CF-9578-302CA18C92F1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2_Storage_NW_SE_Europe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1420,10 +1432,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L13" sqref="L13"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9251,7 +9263,7 @@
     <hyperlink ref="R167" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId142"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId142"/>
+  <legacyDrawing r:id="rId143"/>
 </worksheet>
 </file>